--- a/task4/src/test/resources/demo.xlsx
+++ b/task4/src/test/resources/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel-course/task4/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14479074-80B5-5942-9B1E-92F45CDFA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2159EF27-A4C0-D54B-9A2B-51ED46B83085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2200" windowWidth="28240" windowHeight="17440" xr2:uid="{BD1D9A89-286C-7B4C-A959-E62A70752801}"/>
   </bookViews>
